--- a/Questionnaire.xlsx
+++ b/Questionnaire.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\bachelor-thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bachelor-thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34138337-3B77-4BAD-A1EE-DE371C28538F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13995" yWindow="2925" windowWidth="20115" windowHeight="17325" xr2:uid="{846392DD-2146-4B73-82C6-79EC06FB338C}"/>
+    <workbookView xWindow="13992" yWindow="2928" windowWidth="20112" windowHeight="17328"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -56,22 +55,22 @@
     <t>1 (most secure)</t>
   </si>
   <si>
-    <t>7 (least secure)</t>
-  </si>
-  <si>
-    <t>If you can, please include why you ranked the architectures the way you did.</t>
-  </si>
-  <si>
-    <t>Feel free to add any comments you might have and to ask any questions you might have.</t>
-  </si>
-  <si>
-    <t>Please send your evaluation back to me by March 31st.</t>
+    <t>Please send your evaluation back to me by Friday, April 7th.</t>
+  </si>
+  <si>
+    <t>Please include why you ranked the architectures the way you did.</t>
+  </si>
+  <si>
+    <t>Feel free to add any comments and to ask any questions you might have.</t>
+  </si>
+  <si>
+    <t>10 (least secure)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -450,43 +449,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A49155D-D2DB-4DC4-90EA-D3E3BB6DCC45}">
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="57" style="1" customWidth="1"/>
-    <col min="4" max="4" width="43.140625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="1"/>
+    <col min="4" max="4" width="43.109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -500,43 +499,64 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>6</v>
-      </c>
+    <row r="13" spans="1:4" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"CorpoS"&amp;10&amp;K000000Internal&amp;1#</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>